--- a/public/mno-revenue-statistics-updates.xlsx
+++ b/public/mno-revenue-statistics-updates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaput\Documents\ZICTA\Documents\mno stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emman\Documents\Zicta\zicta-website-client\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F3E9AB2-B0E5-48A1-85CF-AB6C87F0A412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA0C553-557B-46EF-8A80-4C21D2AF628B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revenues" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
   <si>
     <t>Period</t>
   </si>
@@ -497,25 +497,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:I42"/>
+  <dimension ref="B1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="14.88671875" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="1" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" s="1" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
@@ -538,7 +538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
         <v>2010</v>
       </c>
@@ -555,7 +555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
         <v>2011</v>
       </c>
@@ -572,7 +572,7 @@
         <v>310377.56039022835</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="12">
         <v>2012</v>
       </c>
@@ -589,7 +589,7 @@
         <v>266356.31304804957</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="12">
         <v>2013</v>
       </c>
@@ -606,7 +606,7 @@
         <v>303.4888432358411</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="12">
         <v>2014</v>
       </c>
@@ -623,7 +623,7 @@
         <v>406.65566833454164</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="12">
         <v>2015</v>
       </c>
@@ -640,7 +640,7 @@
         <v>391.68867575582567</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>2016</v>
       </c>
@@ -657,7 +657,7 @@
         <v>96.024543820205849</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>2016</v>
       </c>
@@ -674,7 +674,7 @@
         <v>92.980494175955172</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>2016</v>
       </c>
@@ -691,7 +691,7 @@
         <v>98.539701264486951</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>2016</v>
       </c>
@@ -708,7 +708,7 @@
         <v>92.896419366043233</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <v>2016</v>
       </c>
@@ -725,7 +725,7 @@
         <v>363.76733085718149</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>2017</v>
       </c>
@@ -742,7 +742,7 @@
         <v>83.844424765527791</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>2017</v>
       </c>
@@ -759,7 +759,7 @@
         <v>91.048963790284134</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
         <v>2017</v>
       </c>
@@ -776,7 +776,7 @@
         <v>92.126030096780937</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="3">
         <v>2017</v>
       </c>
@@ -793,7 +793,7 @@
         <v>91.586139311721311</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <v>2017</v>
       </c>
@@ -810,7 +810,7 @@
         <v>339.07372497858586</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="3">
         <v>2018</v>
       </c>
@@ -827,7 +827,7 @@
         <v>79.744117850474794</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="3">
         <v>2018</v>
       </c>
@@ -844,7 +844,7 @@
         <v>76.970468427395829</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>2018</v>
       </c>
@@ -861,7 +861,7 @@
         <v>80.139278421288211</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>2018</v>
       </c>
@@ -878,7 +878,7 @@
         <v>78.516082783299836</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <v>2018</v>
       </c>
@@ -895,7 +895,7 @@
         <v>291.89439455419978</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
         <v>2019</v>
       </c>
@@ -912,7 +912,7 @@
         <v>69.796491696962647</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
         <v>2019</v>
       </c>
@@ -929,7 +929,7 @@
         <v>65.241977225990468</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
         <v>2019</v>
       </c>
@@ -946,7 +946,7 @@
         <v>70.254776768358468</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
         <v>2019</v>
       </c>
@@ -963,7 +963,7 @@
         <v>74.270733894571777</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <v>2019</v>
       </c>
@@ -980,7 +980,7 @@
         <v>268.55222292686898</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="3">
         <v>2020</v>
       </c>
@@ -997,7 +997,7 @@
         <v>67.533241741887437</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
         <v>2020</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>70.258537603283415</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="3">
         <v>2020</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>75.995208258324169</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="3">
         <v>2020</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>77.259785383408712</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <v>2020</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>277.57434749454148</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="3">
         <v>2021</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>74.423245036791528</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="3">
         <v>2021</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>81.461548132681131</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="3">
         <v>2021</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>86.38480984091845</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
         <v>2021</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>89.804516308524228</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <v>2021</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>325.48776119220167</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
         <v>2022</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>92.099631539371714</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
         <v>2022</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>96.702396992268206</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
         <v>2022</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>106.95897174906821</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <v>2022</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>106.76951291370079</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <v>2022</v>
       </c>
@@ -1233,6 +1233,91 @@
       </c>
       <c r="F42" s="14">
         <v>391.88254522773178</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="11">
+        <v>1983722.5586787972</v>
+      </c>
+      <c r="E43" s="11">
+        <v>475996.2503199997</v>
+      </c>
+      <c r="F43" s="11">
+        <v>100.34352019897085</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="11">
+        <v>2131812.5939061409</v>
+      </c>
+      <c r="E44" s="11">
+        <v>248387</v>
+      </c>
+      <c r="F44" s="11">
+        <v>105.88608387793428</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="11">
+        <v>2420444.020873853</v>
+      </c>
+      <c r="E45" s="11">
+        <v>771645.51694</v>
+      </c>
+      <c r="F45" s="11">
+        <v>122.65181437539127</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="11">
+        <v>2985835.9273344316</v>
+      </c>
+      <c r="E46" s="11">
+        <v>371748.98184000002</v>
+      </c>
+      <c r="F46" s="11">
+        <v>149.86646682709338</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="12">
+        <v>2023</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="14">
+        <v>9521815.1007932238</v>
+      </c>
+      <c r="E47" s="14">
+        <v>1867777.7490999997</v>
+      </c>
+      <c r="F47" s="14">
+        <v>477.60786361785625</v>
       </c>
     </row>
   </sheetData>
